--- a/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.22600488255182</v>
+        <v>0.8744664561735078</v>
       </c>
       <c r="C2">
-        <v>0.4736788066188353</v>
+        <v>0.1005204275600988</v>
       </c>
       <c r="D2">
-        <v>0.02947023350485267</v>
+        <v>0.1369348627050897</v>
       </c>
       <c r="E2">
-        <v>0.05174983808499078</v>
+        <v>0.09872589043479962</v>
       </c>
       <c r="F2">
-        <v>1.751184714269527</v>
+        <v>0.8322289111765642</v>
       </c>
       <c r="G2">
-        <v>0.0008136315946539976</v>
+        <v>0.0008183562051933257</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.08494790312312972</v>
+        <v>0.1006459152645718</v>
       </c>
       <c r="K2">
-        <v>0.6024513574177348</v>
+        <v>0.8797061543941709</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5939843498318353</v>
+        <v>0.319259986257876</v>
       </c>
       <c r="N2">
-        <v>1.050522303162488</v>
+        <v>0.9434359216015684</v>
       </c>
       <c r="O2">
-        <v>1.178950108312961</v>
+        <v>1.990397344880421</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.934167796723415</v>
+        <v>0.7599166591580513</v>
       </c>
       <c r="C3">
-        <v>0.4095621330617689</v>
+        <v>0.08870898189152854</v>
       </c>
       <c r="D3">
-        <v>0.02669029579628912</v>
+        <v>0.1223262258396147</v>
       </c>
       <c r="E3">
-        <v>0.0485652539541821</v>
+        <v>0.09093887533009593</v>
       </c>
       <c r="F3">
-        <v>1.636886993850467</v>
+        <v>0.8066593406379496</v>
       </c>
       <c r="G3">
-        <v>0.0008205548123788201</v>
+        <v>0.0008219814872254843</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.08101934404154321</v>
+        <v>0.09541689779285889</v>
       </c>
       <c r="K3">
-        <v>0.5226634084811437</v>
+        <v>0.7641626308916045</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5199363311959857</v>
+        <v>0.2796617561577719</v>
       </c>
       <c r="N3">
-        <v>1.10069194768392</v>
+        <v>0.9875584196276446</v>
       </c>
       <c r="O3">
-        <v>1.103896971380209</v>
+        <v>1.959137628783736</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.757291597436051</v>
+        <v>0.6898294658819566</v>
       </c>
       <c r="C4">
-        <v>0.3706479714094257</v>
+        <v>0.08145010971514921</v>
       </c>
       <c r="D4">
-        <v>0.02499977263759234</v>
+        <v>0.1134437836627313</v>
       </c>
       <c r="E4">
-        <v>0.04667357916177473</v>
+        <v>0.08626037143474719</v>
       </c>
       <c r="F4">
-        <v>1.57010491906064</v>
+        <v>0.7922663481659029</v>
       </c>
       <c r="G4">
-        <v>0.0008249310030444204</v>
+        <v>0.0008242843833695567</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.07874642739908921</v>
+        <v>0.09234355441596875</v>
       </c>
       <c r="K4">
-        <v>0.4742872937388256</v>
+        <v>0.6933857764394276</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.475140249052437</v>
+        <v>0.2555132322898963</v>
       </c>
       <c r="N4">
-        <v>1.133129003456318</v>
+        <v>1.01579033357809</v>
       </c>
       <c r="O4">
-        <v>1.060234388193841</v>
+        <v>1.943348529008148</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.685721911824459</v>
+        <v>0.6613196466592512</v>
       </c>
       <c r="C5">
-        <v>0.3548878525865291</v>
+        <v>0.0784895459367192</v>
       </c>
       <c r="D5">
-        <v>0.02431463764093778</v>
+        <v>0.1098445491378897</v>
       </c>
       <c r="E5">
-        <v>0.04591772380184622</v>
+        <v>0.08437830225375009</v>
       </c>
       <c r="F5">
-        <v>1.543681233437326</v>
+        <v>0.7867159988619079</v>
       </c>
       <c r="G5">
-        <v>0.0008267468787322307</v>
+        <v>0.0008252424802390257</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.07785299109255206</v>
+        <v>0.09112404129240304</v>
       </c>
       <c r="K5">
-        <v>0.4547080282906322</v>
+        <v>0.6645754009513212</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4570349167782766</v>
+        <v>0.2457096057700312</v>
       </c>
       <c r="N5">
-        <v>1.146742433852019</v>
+        <v>1.027575808645194</v>
       </c>
       <c r="O5">
-        <v>1.043004271385016</v>
+        <v>1.937736209148426</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.673866520138205</v>
+        <v>0.6565884053540572</v>
       </c>
       <c r="C6">
-        <v>0.3522763429631084</v>
+        <v>0.07799777069436686</v>
       </c>
       <c r="D6">
-        <v>0.0242010893782485</v>
+        <v>0.1092480898894053</v>
       </c>
       <c r="E6">
-        <v>0.045793093859265</v>
+        <v>0.08406722425172575</v>
       </c>
       <c r="F6">
-        <v>1.539339570441257</v>
+        <v>0.7858129988753575</v>
       </c>
       <c r="G6">
-        <v>0.0008270503979809218</v>
+        <v>0.0008254027666398472</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.07770655557730421</v>
+        <v>0.09092348303002495</v>
       </c>
       <c r="K6">
-        <v>0.4514644657054063</v>
+        <v>0.659793087783541</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4540370367275983</v>
+        <v>0.2440838373804333</v>
       </c>
       <c r="N6">
-        <v>1.149026363145758</v>
+        <v>1.029549562223657</v>
       </c>
       <c r="O6">
-        <v>1.040175931920082</v>
+        <v>1.936852955896853</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.756324415973239</v>
+        <v>0.6894447787142894</v>
       </c>
       <c r="C7">
-        <v>0.3704350500449891</v>
+        <v>0.08141019379118575</v>
       </c>
       <c r="D7">
-        <v>0.02499051785504847</v>
+        <v>0.1133951623581879</v>
       </c>
       <c r="E7">
-        <v>0.04666332589025757</v>
+        <v>0.08623489193421463</v>
       </c>
       <c r="F7">
-        <v>1.569745440004141</v>
+        <v>0.792190236791356</v>
       </c>
       <c r="G7">
-        <v>0.0008249553595252759</v>
+        <v>0.0008242972246330961</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.07873424823269204</v>
+        <v>0.09232697651985688</v>
       </c>
       <c r="K7">
-        <v>0.4740227221554818</v>
+        <v>0.6929971142481151</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4748954932412062</v>
+        <v>0.2553808726026077</v>
       </c>
       <c r="N7">
-        <v>1.133311018967504</v>
+        <v>1.015948147692205</v>
       </c>
       <c r="O7">
-        <v>1.059999796566217</v>
+        <v>1.943269555654553</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.124853842865093</v>
+        <v>0.8349117534316122</v>
       </c>
       <c r="C8">
-        <v>0.4514669420994153</v>
+        <v>0.09644867573473448</v>
       </c>
       <c r="D8">
-        <v>0.02850809249223119</v>
+        <v>0.1318787371367591</v>
       </c>
       <c r="E8">
-        <v>0.05063795745128807</v>
+        <v>0.09601874848611658</v>
       </c>
       <c r="F8">
-        <v>1.711029967621499</v>
+        <v>0.8231328392642538</v>
       </c>
       <c r="G8">
-        <v>0.0008159933562245223</v>
+        <v>0.0008195904119046971</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.08356305364017658</v>
+        <v>0.0988134516475867</v>
       </c>
       <c r="K8">
-        <v>0.5748005139263697</v>
+        <v>0.8398256078651514</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.5683017290801544</v>
+        <v>0.3055695624347123</v>
       </c>
       <c r="N8">
-        <v>1.067472260049392</v>
+        <v>0.9584089217510323</v>
       </c>
       <c r="O8">
-        <v>1.152540771207256</v>
+        <v>1.978891286053141</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.869494298517566</v>
+        <v>1.122658572970352</v>
       </c>
       <c r="C9">
-        <v>0.6147836599970162</v>
+        <v>0.1259293658879841</v>
       </c>
       <c r="D9">
-        <v>0.0355537478627781</v>
+        <v>0.1688919448137511</v>
       </c>
       <c r="E9">
-        <v>0.05898638308679693</v>
+        <v>0.1160865400932067</v>
       </c>
       <c r="F9">
-        <v>2.018179080315463</v>
+        <v>0.8948338159335947</v>
       </c>
       <c r="G9">
-        <v>0.0007993625967645146</v>
+        <v>0.0008109569112628132</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.09424606578735961</v>
+        <v>0.1127005275970276</v>
       </c>
       <c r="K9">
-        <v>0.7782880674270416</v>
+        <v>1.129589604787355</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7577232884754395</v>
+        <v>0.4055116770431866</v>
       </c>
       <c r="N9">
-        <v>0.9520743473896403</v>
+        <v>0.8549076466792913</v>
       </c>
       <c r="O9">
-        <v>1.35547618131298</v>
+        <v>2.077387994592613</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.435512240545847</v>
+        <v>1.336378364589279</v>
       </c>
       <c r="C10">
-        <v>0.738719978554002</v>
+        <v>0.1476483013445744</v>
       </c>
       <c r="D10">
-        <v>0.04084839304235288</v>
+        <v>0.1966642352631709</v>
       </c>
       <c r="E10">
-        <v>0.06553284093248735</v>
+        <v>0.1314664187694952</v>
       </c>
       <c r="F10">
-        <v>2.266991400324585</v>
+        <v>0.955195897583593</v>
       </c>
       <c r="G10">
-        <v>0.000787642314294568</v>
+        <v>0.0008049568660687249</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1030016092352426</v>
+        <v>0.1237298477652686</v>
       </c>
       <c r="K10">
-        <v>0.9328908549103829</v>
+        <v>1.344362776514259</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9021469936241857</v>
+        <v>0.4801876882042819</v>
       </c>
       <c r="N10">
-        <v>0.8768049858921501</v>
+        <v>0.7849655799840027</v>
       </c>
       <c r="O10">
-        <v>1.521120111184331</v>
+        <v>2.169614063561113</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.698508505909217</v>
+        <v>1.434296853699578</v>
       </c>
       <c r="C11">
-        <v>0.7962758822104945</v>
+        <v>0.1575575476031901</v>
       </c>
       <c r="D11">
-        <v>0.04328992643483787</v>
+        <v>0.2094505094645172</v>
       </c>
       <c r="E11">
-        <v>0.06861932657185577</v>
+        <v>0.1386245349577138</v>
       </c>
       <c r="F11">
-        <v>2.386413658195366</v>
+        <v>0.9845524552303999</v>
       </c>
       <c r="G11">
-        <v>0.0007823996132799772</v>
+        <v>0.0008022969522237473</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1072233167943182</v>
+        <v>0.1289540356482277</v>
       </c>
       <c r="K11">
-        <v>1.004714195344675</v>
+        <v>1.442660576080954</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9693520378673952</v>
+        <v>0.5145070762932278</v>
       </c>
       <c r="N11">
-        <v>0.8449195661247444</v>
+        <v>0.7545687850263674</v>
       </c>
       <c r="O11">
-        <v>1.600937623783736</v>
+        <v>2.216450486214143</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.79902049493171</v>
+        <v>1.471492680294801</v>
       </c>
       <c r="C12">
-        <v>0.8182697320559384</v>
+        <v>0.1613155052925919</v>
       </c>
       <c r="D12">
-        <v>0.04421988613776762</v>
+        <v>0.2143165470247936</v>
       </c>
       <c r="E12">
-        <v>0.06980542945409596</v>
+        <v>0.1413604252393625</v>
       </c>
       <c r="F12">
-        <v>2.432645487434954</v>
+        <v>0.9959621108057206</v>
       </c>
       <c r="G12">
-        <v>0.0007804253648564571</v>
+        <v>0.0008012992960012742</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1088602019107157</v>
+        <v>0.1309644556404592</v>
       </c>
       <c r="K12">
-        <v>1.032162388518529</v>
+        <v>1.479985096369376</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.9950511219108193</v>
+        <v>0.5275597607449498</v>
       </c>
       <c r="N12">
-        <v>0.8332117494485516</v>
+        <v>0.7432713657189609</v>
       </c>
       <c r="O12">
-        <v>1.631886134491239</v>
+        <v>2.234938880604744</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.7773302802388</v>
+        <v>1.463476456265255</v>
       </c>
       <c r="C13">
-        <v>0.813523620849935</v>
+        <v>0.1605058928772394</v>
       </c>
       <c r="D13">
-        <v>0.04401935092154474</v>
+        <v>0.2132674476536067</v>
       </c>
       <c r="E13">
-        <v>0.06954918142478661</v>
+        <v>0.1407700451445884</v>
       </c>
       <c r="F13">
-        <v>2.422641826304186</v>
+        <v>0.9934914732706659</v>
       </c>
       <c r="G13">
-        <v>0.0007808500927658502</v>
+        <v>0.0008015137390517672</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1085059033923201</v>
+        <v>0.1305300069499964</v>
       </c>
       <c r="K13">
-        <v>1.026239191886688</v>
+        <v>1.471941829826591</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.9895046738426245</v>
+        <v>0.5247460024696764</v>
       </c>
       <c r="N13">
-        <v>0.8357164595958082</v>
+        <v>0.745694836518342</v>
       </c>
       <c r="O13">
-        <v>1.625187256348639</v>
+        <v>2.230922769691404</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.706758443188505</v>
+        <v>1.437354551320738</v>
       </c>
       <c r="C14">
-        <v>0.7980811667267744</v>
+        <v>0.1578665979129283</v>
       </c>
       <c r="D14">
-        <v>0.04336632239449045</v>
+        <v>0.2098503440067958</v>
       </c>
       <c r="E14">
-        <v>0.06871655039671154</v>
+        <v>0.1388490999275724</v>
       </c>
       <c r="F14">
-        <v>2.390196263966871</v>
+        <v>0.9854851431211102</v>
       </c>
       <c r="G14">
-        <v>0.0007822369799046491</v>
+        <v>0.0008022146845043846</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1073571946703993</v>
+        <v>0.1291187758993217</v>
       </c>
       <c r="K14">
-        <v>1.006967142099697</v>
+        <v>1.44572916426111</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9714611021018555</v>
+        <v>0.5155797537407381</v>
       </c>
       <c r="N14">
-        <v>0.8439488409899454</v>
+        <v>0.7536350135124188</v>
       </c>
       <c r="O14">
-        <v>1.603468781581498</v>
+        <v>2.217956156492363</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.663655150273541</v>
+        <v>1.421369762372677</v>
       </c>
       <c r="C15">
-        <v>0.7886490239406783</v>
+        <v>0.1562507168610665</v>
       </c>
       <c r="D15">
-        <v>0.04296704834998621</v>
+        <v>0.2077604831544733</v>
       </c>
       <c r="E15">
-        <v>0.06820884926727189</v>
+        <v>0.1376758179196926</v>
       </c>
       <c r="F15">
-        <v>2.370457398448195</v>
+        <v>0.9806198066515179</v>
       </c>
       <c r="G15">
-        <v>0.0007830878723469395</v>
+        <v>0.0008026452710857334</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1066586766547388</v>
+        <v>0.1282586142516351</v>
       </c>
       <c r="K15">
-        <v>0.9951961648636996</v>
+        <v>1.429686818342475</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9604425047480802</v>
+        <v>0.5099727434783219</v>
       </c>
       <c r="N15">
-        <v>0.8490400217363359</v>
+        <v>0.7585266405147362</v>
       </c>
       <c r="O15">
-        <v>1.590262356023587</v>
+        <v>2.210113276797784</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.418446390587292</v>
+        <v>1.329994522658211</v>
       </c>
       <c r="C16">
-        <v>0.7349846865770928</v>
+        <v>0.1470014086516045</v>
       </c>
       <c r="D16">
-        <v>0.04068955144610698</v>
+        <v>0.1958318778738146</v>
       </c>
       <c r="E16">
-        <v>0.06533345750732522</v>
+        <v>0.1310020423970606</v>
       </c>
       <c r="F16">
-        <v>2.259321699643891</v>
+        <v>0.953317249112601</v>
       </c>
       <c r="G16">
-        <v>0.0007879865819007951</v>
+        <v>0.0008051320629259808</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1027308377473233</v>
+        <v>0.1233927981338852</v>
       </c>
       <c r="K16">
-        <v>0.9282300315736904</v>
+        <v>1.337952086620106</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.8977880661735753</v>
+        <v>0.4779524022539121</v>
       </c>
       <c r="N16">
-        <v>0.8789384724884499</v>
+        <v>0.7869814131968216</v>
       </c>
       <c r="O16">
-        <v>1.516000445462637</v>
+        <v>2.166655669098958</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.269517545708936</v>
+        <v>1.274128212897125</v>
       </c>
       <c r="C17">
-        <v>0.7023846687085324</v>
+        <v>0.1413356573940092</v>
       </c>
       <c r="D17">
-        <v>0.03930127310495379</v>
+        <v>0.1885546646445562</v>
       </c>
       <c r="E17">
-        <v>0.0635984480423204</v>
+        <v>0.1269507106109167</v>
       </c>
       <c r="F17">
-        <v>2.192817035513755</v>
+        <v>0.937067910342364</v>
       </c>
       <c r="G17">
-        <v>0.0007910133738242529</v>
+        <v>0.0008066751591609117</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1003850235401273</v>
+        <v>0.1204624144262496</v>
       </c>
       <c r="K17">
-        <v>0.887555090817699</v>
+        <v>1.281839250084857</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8597599856721487</v>
+        <v>0.458402811623948</v>
       </c>
       <c r="N17">
-        <v>0.8979022362332998</v>
+        <v>0.8048074393705917</v>
       </c>
       <c r="O17">
-        <v>1.471641891184177</v>
+        <v>2.141281121352506</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.184367948966496</v>
+        <v>1.242059898710863</v>
       </c>
       <c r="C18">
-        <v>0.6837428020801042</v>
+        <v>0.1380795284001977</v>
       </c>
       <c r="D18">
-        <v>0.03850583159361776</v>
+        <v>0.1843832187643528</v>
       </c>
       <c r="E18">
-        <v>0.06261061313008298</v>
+        <v>0.1246355868983322</v>
       </c>
       <c r="F18">
-        <v>2.155144884908751</v>
+        <v>0.9278990468238248</v>
       </c>
       <c r="G18">
-        <v>0.0007927627876464775</v>
+        <v>0.0008075692780085812</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.09905799153168715</v>
+        <v>0.1187962574975359</v>
       </c>
       <c r="K18">
-        <v>0.8642982005685127</v>
+        <v>1.249619774809901</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8380267849643985</v>
+        <v>0.4471908287443256</v>
       </c>
       <c r="N18">
-        <v>0.9090295138244144</v>
+        <v>0.8151936041441514</v>
       </c>
       <c r="O18">
-        <v>1.446542953459868</v>
+        <v>2.127142690674162</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.155621719904786</v>
+        <v>1.231212725676329</v>
       </c>
       <c r="C19">
-        <v>0.6774488282740663</v>
+        <v>0.1369774769387249</v>
       </c>
       <c r="D19">
-        <v>0.03823701530605206</v>
+        <v>0.1829732148860046</v>
       </c>
       <c r="E19">
-        <v>0.06227783376309048</v>
+        <v>0.1238542592453022</v>
       </c>
       <c r="F19">
-        <v>2.142486054452704</v>
+        <v>0.9248244920610631</v>
       </c>
       <c r="G19">
-        <v>0.0007933566160842365</v>
+        <v>0.0008078731517234327</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.09861238568233688</v>
+        <v>0.1182353739538158</v>
       </c>
       <c r="K19">
-        <v>0.8564465454375352</v>
+        <v>1.23871983019211</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8306913029841851</v>
+        <v>0.4434000218696283</v>
       </c>
       <c r="N19">
-        <v>0.912833974439387</v>
+        <v>0.8187327784070906</v>
       </c>
       <c r="O19">
-        <v>1.4381138159969</v>
+        <v>2.122432556279961</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.285317571604594</v>
+        <v>1.280068487385392</v>
       </c>
       <c r="C20">
-        <v>0.7058435327455754</v>
+        <v>0.141938501463116</v>
       </c>
       <c r="D20">
-        <v>0.03944873651012415</v>
+        <v>0.1893278496142017</v>
       </c>
       <c r="E20">
-        <v>0.06378208590328072</v>
+        <v>0.127380405352902</v>
       </c>
       <c r="F20">
-        <v>2.199835811197076</v>
+        <v>0.9387791861895067</v>
       </c>
       <c r="G20">
-        <v>0.000790690300782197</v>
+        <v>0.0008065102168060552</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1006324131556227</v>
+        <v>0.1207723422338489</v>
       </c>
       <c r="K20">
-        <v>0.8918704538201752</v>
+        <v>1.287806741218247</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.863793466615931</v>
+        <v>0.4604804973778869</v>
       </c>
       <c r="N20">
-        <v>0.895860568482</v>
+        <v>0.8028959894009242</v>
       </c>
       <c r="O20">
-        <v>1.476320431038133</v>
+        <v>2.143934701672606</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.727461012514595</v>
+        <v>1.445023899972568</v>
       </c>
       <c r="C21">
-        <v>0.8026113459734745</v>
+        <v>0.1586416611954604</v>
       </c>
       <c r="D21">
-        <v>0.04355798036134217</v>
+        <v>0.2108533562590935</v>
       </c>
       <c r="E21">
-        <v>0.0689606297034473</v>
+        <v>0.1394126256907455</v>
       </c>
       <c r="F21">
-        <v>2.399697964261676</v>
+        <v>0.9878286785588983</v>
       </c>
       <c r="G21">
-        <v>0.0007818293323213518</v>
+        <v>0.0008020085427657732</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1076935280577942</v>
+        <v>0.129532396802972</v>
       </c>
       <c r="K21">
-        <v>1.012620716278406</v>
+        <v>1.453425581746984</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.976753866991622</v>
+        <v>0.518270510905829</v>
       </c>
       <c r="N21">
-        <v>0.8415206066290537</v>
+        <v>0.7512969308588904</v>
       </c>
       <c r="O21">
-        <v>1.609827699866173</v>
+        <v>2.221743925227344</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.021865843162743</v>
+        <v>1.55351750805201</v>
       </c>
       <c r="C22">
-        <v>0.8670289683620638</v>
+        <v>0.1695911421957561</v>
       </c>
       <c r="D22">
-        <v>0.04627547454790459</v>
+        <v>0.2250634372607152</v>
       </c>
       <c r="E22">
-        <v>0.07244698197234101</v>
+        <v>0.1474246816053864</v>
       </c>
       <c r="F22">
-        <v>2.536263386574035</v>
+        <v>1.02160328541359</v>
       </c>
       <c r="G22">
-        <v>0.0007761016348545735</v>
+        <v>0.0007991221635835551</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1125332438681284</v>
+        <v>0.1354461186328635</v>
       </c>
       <c r="K22">
-        <v>1.093016063436764</v>
+        <v>1.562265400748316</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.052055431460282</v>
+        <v>0.5563733301569371</v>
       </c>
       <c r="N22">
-        <v>0.8081578256536091</v>
+        <v>0.7188211713347066</v>
       </c>
       <c r="O22">
-        <v>1.701343145427217</v>
+        <v>2.277008515595298</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.864192590891889</v>
+        <v>1.495544069748263</v>
       </c>
       <c r="C23">
-        <v>0.8325299770897914</v>
+        <v>0.1637437062643272</v>
       </c>
       <c r="D23">
-        <v>0.04482194069033341</v>
+        <v>0.2174654922704065</v>
       </c>
       <c r="E23">
-        <v>0.07057631175551649</v>
+        <v>0.1431342278822747</v>
       </c>
       <c r="F23">
-        <v>2.462791485213458</v>
+        <v>1.0034129562966</v>
       </c>
       <c r="G23">
-        <v>0.0007791534313333212</v>
+        <v>0.0008006577192889416</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1099282252751053</v>
+        <v>0.1322717753793157</v>
       </c>
       <c r="K23">
-        <v>1.049959536598848</v>
+        <v>1.504115373443085</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.011718534563769</v>
+        <v>0.5360043360479807</v>
       </c>
       <c r="N23">
-        <v>0.8257572555059696</v>
+        <v>0.7360368586706425</v>
       </c>
       <c r="O23">
-        <v>1.652080494209343</v>
+        <v>2.247091541907992</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.278172920558973</v>
+        <v>1.277382734842661</v>
       </c>
       <c r="C24">
-        <v>0.7042794700318211</v>
+        <v>0.1416659520627235</v>
       </c>
       <c r="D24">
-        <v>0.03938205994933952</v>
+        <v>0.1889782544786982</v>
       </c>
       <c r="E24">
-        <v>0.06369903331163229</v>
+        <v>0.1271860967762493</v>
       </c>
       <c r="F24">
-        <v>2.196660879719502</v>
+        <v>0.9380049807222548</v>
       </c>
       <c r="G24">
-        <v>0.0007908363331705159</v>
+        <v>0.0008065847655599478</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1005205012950228</v>
+        <v>0.1206321662410161</v>
       </c>
       <c r="K24">
-        <v>0.8899190831575794</v>
+        <v>1.285108713357346</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8619695285334359</v>
+        <v>0.4595410909858515</v>
       </c>
       <c r="N24">
-        <v>0.8967829084712378</v>
+        <v>0.8037597275588819</v>
       </c>
       <c r="O24">
-        <v>1.474204012741509</v>
+        <v>2.142733620956818</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.665158219655439</v>
+        <v>1.044470017037952</v>
       </c>
       <c r="C25">
-        <v>0.5700074449223393</v>
+        <v>0.1179486297314298</v>
       </c>
       <c r="D25">
-        <v>0.03362917491273265</v>
+        <v>0.1587856967544354</v>
       </c>
       <c r="E25">
-        <v>0.0566612531677535</v>
+        <v>0.110553450601536</v>
       </c>
       <c r="F25">
-        <v>1.931397409464381</v>
+        <v>0.8741607548691661</v>
       </c>
       <c r="G25">
-        <v>0.0008037681686818898</v>
+        <v>0.0008132307121856261</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.09120981863583921</v>
+        <v>0.1088073022292093</v>
       </c>
       <c r="K25">
-        <v>0.7224629457797462</v>
+        <v>1.050928358448658</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7056696069295754</v>
+        <v>0.3782798175665505</v>
       </c>
       <c r="N25">
-        <v>0.9817124561686725</v>
+        <v>0.8818674805058153</v>
       </c>
       <c r="O25">
-        <v>1.297941740938853</v>
+        <v>2.047436754985512</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8744664561735078</v>
+        <v>0.7682894357215275</v>
       </c>
       <c r="C2">
-        <v>0.1005204275600988</v>
+        <v>0.1094844916715658</v>
       </c>
       <c r="D2">
-        <v>0.1369348627050897</v>
+        <v>0.1941783569629791</v>
       </c>
       <c r="E2">
-        <v>0.09872589043479962</v>
+        <v>0.1311970310165371</v>
       </c>
       <c r="F2">
-        <v>0.8322289111765642</v>
+        <v>0.6006272764279572</v>
       </c>
       <c r="G2">
-        <v>0.0008183562051933257</v>
+        <v>0.3168018821752554</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0006631373491730042</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1006459152645718</v>
+        <v>0.2941366257633291</v>
       </c>
       <c r="K2">
-        <v>0.8797061543941709</v>
+        <v>0.2479438962296285</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1279852152716288</v>
       </c>
       <c r="M2">
-        <v>0.319259986257876</v>
+        <v>0.8177426471575586</v>
       </c>
       <c r="N2">
-        <v>0.9434359216015684</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.990397344880421</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3144929584374978</v>
+      </c>
+      <c r="P2">
+        <v>0.7918932786205595</v>
+      </c>
+      <c r="Q2">
+        <v>1.23520241170219</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7599166591580513</v>
+        <v>0.6698520680314743</v>
       </c>
       <c r="C3">
-        <v>0.08870898189152854</v>
+        <v>0.0967078917738462</v>
       </c>
       <c r="D3">
-        <v>0.1223262258396147</v>
+        <v>0.174583983927306</v>
       </c>
       <c r="E3">
-        <v>0.09093887533009593</v>
+        <v>0.1199733029166943</v>
       </c>
       <c r="F3">
-        <v>0.8066593406379496</v>
+        <v>0.5797789455883873</v>
       </c>
       <c r="G3">
-        <v>0.0008219814872254843</v>
+        <v>0.3084430168364776</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001423754595925586</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.09541689779285889</v>
+        <v>0.2942341472290906</v>
       </c>
       <c r="K3">
-        <v>0.7641626308916045</v>
+        <v>0.2507111155278032</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1186136520514864</v>
       </c>
       <c r="M3">
-        <v>0.2796617561577719</v>
+        <v>0.7142068543386131</v>
       </c>
       <c r="N3">
-        <v>0.9875584196276446</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.959137628783736</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.2751605579644654</v>
+      </c>
+      <c r="P3">
+        <v>0.8179206311994012</v>
+      </c>
+      <c r="Q3">
+        <v>1.217422110157798</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6898294658819566</v>
+        <v>0.6093209022661767</v>
       </c>
       <c r="C4">
-        <v>0.08145010971514921</v>
+        <v>0.08884446490000641</v>
       </c>
       <c r="D4">
-        <v>0.1134437836627313</v>
+        <v>0.1625721835284253</v>
       </c>
       <c r="E4">
-        <v>0.08626037143474719</v>
+        <v>0.1130727810431473</v>
       </c>
       <c r="F4">
-        <v>0.7922663481659029</v>
+        <v>0.5675601580599761</v>
       </c>
       <c r="G4">
-        <v>0.0008242843833695567</v>
+        <v>0.3037638442639832</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.002058405060069934</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.09234355441596875</v>
+        <v>0.2945943989581323</v>
       </c>
       <c r="K4">
-        <v>0.6933857764394276</v>
+        <v>0.2527572312785296</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1128284695096511</v>
       </c>
       <c r="M4">
-        <v>0.2555132322898963</v>
+        <v>0.6505177234074608</v>
       </c>
       <c r="N4">
-        <v>1.01579033357809</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>1.943348529008148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.251000727615331</v>
+      </c>
+      <c r="P4">
+        <v>0.8345633279562747</v>
+      </c>
+      <c r="Q4">
+        <v>1.208087569669871</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6613196466592512</v>
+        <v>0.5846278817398058</v>
       </c>
       <c r="C5">
-        <v>0.0784895459367192</v>
+        <v>0.0856350282982703</v>
       </c>
       <c r="D5">
-        <v>0.1098445491378897</v>
+        <v>0.1576812901798661</v>
       </c>
       <c r="E5">
-        <v>0.08437830225375009</v>
+        <v>0.110257853373767</v>
       </c>
       <c r="F5">
-        <v>0.7867159988619079</v>
+        <v>0.5627220175482606</v>
       </c>
       <c r="G5">
-        <v>0.0008252424802390257</v>
+        <v>0.3019665626499375</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002357402674569187</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.09112404129240304</v>
+        <v>0.2948148149708985</v>
       </c>
       <c r="K5">
-        <v>0.6645754009513212</v>
+        <v>0.2536758111238253</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1104624877974771</v>
       </c>
       <c r="M5">
-        <v>0.2457096057700312</v>
+        <v>0.624530848324909</v>
       </c>
       <c r="N5">
-        <v>1.027575808645194</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>1.937736209148426</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2411515231357022</v>
+      </c>
+      <c r="P5">
+        <v>0.8415085624015486</v>
+      </c>
+      <c r="Q5">
+        <v>1.204668185793608</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6565884053540572</v>
+        <v>0.5805259541751298</v>
       </c>
       <c r="C6">
-        <v>0.07799777069436686</v>
+        <v>0.08510179009857666</v>
       </c>
       <c r="D6">
-        <v>0.1092480898894053</v>
+        <v>0.156869380146972</v>
       </c>
       <c r="E6">
-        <v>0.08406722425172575</v>
+        <v>0.109790243458221</v>
       </c>
       <c r="F6">
-        <v>0.7858129988753575</v>
+        <v>0.5619270203541831</v>
       </c>
       <c r="G6">
-        <v>0.0008254027666398472</v>
+        <v>0.3016746132481103</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002409438267247266</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.09092348303002495</v>
+        <v>0.2948558059598412</v>
       </c>
       <c r="K6">
-        <v>0.659793087783541</v>
+        <v>0.2538333892819562</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1100690872606727</v>
       </c>
       <c r="M6">
-        <v>0.2440838373804333</v>
+        <v>0.6202136559626581</v>
       </c>
       <c r="N6">
-        <v>1.029549562223657</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>1.936852955896853</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2395157945733004</v>
+      </c>
+      <c r="P6">
+        <v>0.8426715785440351</v>
+      </c>
+      <c r="Q6">
+        <v>1.204123239634157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6894447787142894</v>
+        <v>0.6089879934882845</v>
       </c>
       <c r="C7">
-        <v>0.08141019379118575</v>
+        <v>0.08880120212943154</v>
       </c>
       <c r="D7">
-        <v>0.1133951623581879</v>
+        <v>0.1625062080413642</v>
       </c>
       <c r="E7">
-        <v>0.08623489193421463</v>
+        <v>0.113034830523457</v>
       </c>
       <c r="F7">
-        <v>0.792190236791356</v>
+        <v>0.5674943446694627</v>
       </c>
       <c r="G7">
-        <v>0.0008242972246330961</v>
+        <v>0.3037391678096029</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002062276296270094</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.09232697651985688</v>
+        <v>0.2945970760046492</v>
       </c>
       <c r="K7">
-        <v>0.6929971142481151</v>
+        <v>0.2527692795639638</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1127965962372244</v>
       </c>
       <c r="M7">
-        <v>0.2553808726026077</v>
+        <v>0.6501673934739784</v>
       </c>
       <c r="N7">
-        <v>1.015948147692205</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>1.943269555654553</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2508679153871149</v>
+      </c>
+      <c r="P7">
+        <v>0.8346563371775559</v>
+      </c>
+      <c r="Q7">
+        <v>1.208039915180038</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8349117534316122</v>
+        <v>0.7343648259133317</v>
       </c>
       <c r="C8">
-        <v>0.09644867573473448</v>
+        <v>0.1050827380897346</v>
       </c>
       <c r="D8">
-        <v>0.1318787371367591</v>
+        <v>0.187417715999274</v>
       </c>
       <c r="E8">
-        <v>0.09601874848611658</v>
+        <v>0.1273285969053504</v>
       </c>
       <c r="F8">
-        <v>0.8231328392642538</v>
+        <v>0.5933146995553997</v>
       </c>
       <c r="G8">
-        <v>0.0008195904119046971</v>
+        <v>0.3138229562715225</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.0008895217076894113</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0988134516475867</v>
+        <v>0.2941067300602498</v>
       </c>
       <c r="K8">
-        <v>0.8398256078651514</v>
+        <v>0.2488244805657942</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1247599188209563</v>
       </c>
       <c r="M8">
-        <v>0.3055695624347123</v>
+        <v>0.7820657817502763</v>
       </c>
       <c r="N8">
-        <v>0.9584089217510323</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>1.978891286053141</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3009322158757755</v>
+      </c>
+      <c r="P8">
+        <v>0.8007281871683816</v>
+      </c>
+      <c r="Q8">
+        <v>1.228735033705036</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.122658572970352</v>
+        <v>0.9796870446315609</v>
       </c>
       <c r="C9">
-        <v>0.1259293658879841</v>
+        <v>0.1368828759461138</v>
       </c>
       <c r="D9">
-        <v>0.1688919448137511</v>
+        <v>0.2364627839020415</v>
       </c>
       <c r="E9">
-        <v>0.1160865400932067</v>
+        <v>0.155316665738308</v>
       </c>
       <c r="F9">
-        <v>0.8948338159335947</v>
+        <v>0.6488176735845386</v>
       </c>
       <c r="G9">
-        <v>0.0008109569112628132</v>
+        <v>0.3374024408000409</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.091707689277911E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1127005275970276</v>
+        <v>0.2956188240823252</v>
       </c>
       <c r="K9">
-        <v>1.129589604787355</v>
+        <v>0.2439586637953077</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1480064671370869</v>
       </c>
       <c r="M9">
-        <v>0.4055116770431866</v>
+        <v>1.039961389505152</v>
       </c>
       <c r="N9">
-        <v>0.8549076466792913</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>2.077387994592613</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.3991067349612152</v>
+      </c>
+      <c r="P9">
+        <v>0.7395947486526389</v>
+      </c>
+      <c r="Q9">
+        <v>1.28250876187505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.336378364589279</v>
+        <v>1.158735504655141</v>
       </c>
       <c r="C10">
-        <v>0.1476483013445744</v>
+        <v>0.1592535573043818</v>
       </c>
       <c r="D10">
-        <v>0.1966642352631709</v>
+        <v>0.2668241425000701</v>
       </c>
       <c r="E10">
-        <v>0.1314664187694952</v>
+        <v>0.1693020486690386</v>
       </c>
       <c r="F10">
-        <v>0.955195897583593</v>
+        <v>0.6842063527824607</v>
       </c>
       <c r="G10">
-        <v>0.0008049568660687249</v>
+        <v>0.3531851704937807</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.0004712222212468475</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1237298477652686</v>
+        <v>0.2962944168899213</v>
       </c>
       <c r="K10">
-        <v>1.344362776514259</v>
+        <v>0.2402863239199746</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.1573458405436199</v>
       </c>
       <c r="M10">
-        <v>0.4801876882042819</v>
+        <v>1.226754541919149</v>
       </c>
       <c r="N10">
-        <v>0.7849655799840027</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>2.169614063561113</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.4619615021190313</v>
+      </c>
+      <c r="P10">
+        <v>0.6993871874825466</v>
+      </c>
+      <c r="Q10">
+        <v>1.317799796832304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.434296853699578</v>
+        <v>1.23026426133265</v>
       </c>
       <c r="C11">
-        <v>0.1575575476031901</v>
+        <v>0.1612009614125611</v>
       </c>
       <c r="D11">
-        <v>0.2094505094645172</v>
+        <v>0.2316891507375374</v>
       </c>
       <c r="E11">
-        <v>0.1386245349577138</v>
+        <v>0.1241880494806935</v>
       </c>
       <c r="F11">
-        <v>0.9845524552303999</v>
+        <v>0.6268440527937358</v>
       </c>
       <c r="G11">
-        <v>0.0008022969522237473</v>
+        <v>0.3254012665332056</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01899567112463885</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1289540356482277</v>
+        <v>0.279175149828589</v>
       </c>
       <c r="K11">
-        <v>1.442660576080954</v>
+        <v>0.2219494846486043</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1065201878304372</v>
       </c>
       <c r="M11">
-        <v>0.5145070762932278</v>
+        <v>1.289763562495068</v>
       </c>
       <c r="N11">
-        <v>0.7545687850263674</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>2.216450486214143</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.4113311596339244</v>
+      </c>
+      <c r="P11">
+        <v>0.6950089821424683</v>
+      </c>
+      <c r="Q11">
+        <v>1.223201776014832</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.471492680294801</v>
+        <v>1.252588321881973</v>
       </c>
       <c r="C12">
-        <v>0.1613155052925919</v>
+        <v>0.1580903846554378</v>
       </c>
       <c r="D12">
-        <v>0.2143165470247936</v>
+        <v>0.19798989866824</v>
       </c>
       <c r="E12">
-        <v>0.1413604252393625</v>
+        <v>0.0909251706733194</v>
       </c>
       <c r="F12">
-        <v>0.9959621108057206</v>
+        <v>0.5724800784015827</v>
       </c>
       <c r="G12">
-        <v>0.0008012992960012742</v>
+        <v>0.299060043770794</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05758816315483983</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1309644556404592</v>
+        <v>0.2646504945522281</v>
       </c>
       <c r="K12">
-        <v>1.479985096369376</v>
+        <v>0.2075199312968508</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.07706238974687807</v>
       </c>
       <c r="M12">
-        <v>0.5275597607449498</v>
+        <v>1.303061259855895</v>
       </c>
       <c r="N12">
-        <v>0.7432713657189609</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>2.234938880604744</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.3582623795533593</v>
+      </c>
+      <c r="P12">
+        <v>0.702860965635665</v>
+      </c>
+      <c r="Q12">
+        <v>1.136990152354798</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.463476456265255</v>
+        <v>1.23812251238985</v>
       </c>
       <c r="C13">
-        <v>0.1605058928772394</v>
+        <v>0.150935128736819</v>
       </c>
       <c r="D13">
-        <v>0.2132674476536067</v>
+        <v>0.1636167976833747</v>
       </c>
       <c r="E13">
-        <v>0.1407700451445884</v>
+        <v>0.06490473863524926</v>
       </c>
       <c r="F13">
-        <v>0.9934914732706659</v>
+        <v>0.5172511964945414</v>
       </c>
       <c r="G13">
-        <v>0.0008015137390517672</v>
+        <v>0.2722024956075515</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132239200717038</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1305300069499964</v>
+        <v>0.251196749088507</v>
       </c>
       <c r="K13">
-        <v>1.471941829826591</v>
+        <v>0.1951358357585065</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0621772336807207</v>
       </c>
       <c r="M13">
-        <v>0.5247460024696764</v>
+        <v>1.27874703581108</v>
       </c>
       <c r="N13">
-        <v>0.745694836518342</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>2.230922769691404</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.3006069904924757</v>
+      </c>
+      <c r="P13">
+        <v>0.7197839501892176</v>
+      </c>
+      <c r="Q13">
+        <v>1.051847459898624</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.437354551320738</v>
+        <v>1.211363267355324</v>
       </c>
       <c r="C14">
-        <v>0.1578665979129283</v>
+        <v>0.1441401733366376</v>
       </c>
       <c r="D14">
-        <v>0.2098503440067958</v>
+        <v>0.139788106650883</v>
       </c>
       <c r="E14">
-        <v>0.1388490999275724</v>
+        <v>0.05111723908480137</v>
       </c>
       <c r="F14">
-        <v>0.9854851431211102</v>
+        <v>0.4787467558261298</v>
       </c>
       <c r="G14">
-        <v>0.0008022146845043846</v>
+        <v>0.2534016322272947</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1624907115226364</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1291187758993217</v>
+        <v>0.2423535377809216</v>
       </c>
       <c r="K14">
-        <v>1.44572916426111</v>
+        <v>0.1874978490132229</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.06036740713641553</v>
       </c>
       <c r="M14">
-        <v>0.5155797537407381</v>
+        <v>1.244770163029443</v>
       </c>
       <c r="N14">
-        <v>0.7536350135124188</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>2.217956156492363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.2589708023305946</v>
+      </c>
+      <c r="P14">
+        <v>0.7358419429642709</v>
+      </c>
+      <c r="Q14">
+        <v>0.9934129583438107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.421369762372677</v>
+        <v>1.197040516575839</v>
       </c>
       <c r="C15">
-        <v>0.1562507168610665</v>
+        <v>0.1416397559123368</v>
       </c>
       <c r="D15">
-        <v>0.2077604831544733</v>
+        <v>0.1335903191165784</v>
       </c>
       <c r="E15">
-        <v>0.1376758179196926</v>
+        <v>0.04831865373649791</v>
       </c>
       <c r="F15">
-        <v>0.9806198066515179</v>
+        <v>0.4690461681171598</v>
       </c>
       <c r="G15">
-        <v>0.0008026452710857334</v>
+        <v>0.2486777237907489</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749684056460126</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.1282586142516351</v>
+        <v>0.2404266023494586</v>
       </c>
       <c r="K15">
-        <v>1.429686818342475</v>
+        <v>0.1860398777646672</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.06100783376727925</v>
       </c>
       <c r="M15">
-        <v>0.5099727434783219</v>
+        <v>1.228561654331202</v>
       </c>
       <c r="N15">
-        <v>0.7585266405147362</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>2.210113276797784</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.2475767305205459</v>
+      </c>
+      <c r="P15">
+        <v>0.7411731939043023</v>
+      </c>
+      <c r="Q15">
+        <v>0.9793310862300046</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.329994522658211</v>
+        <v>1.122923309556143</v>
       </c>
       <c r="C16">
-        <v>0.1470014086516045</v>
+        <v>0.1336565009634541</v>
       </c>
       <c r="D16">
-        <v>0.1958318778738146</v>
+        <v>0.1284145269391814</v>
       </c>
       <c r="E16">
-        <v>0.1310020423970606</v>
+        <v>0.04825628563555551</v>
       </c>
       <c r="F16">
-        <v>0.953317249112601</v>
+        <v>0.4654647649801475</v>
       </c>
       <c r="G16">
-        <v>0.0008051320629259808</v>
+        <v>0.247282731695023</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620873766729432</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1233927981338852</v>
+        <v>0.2427170419987732</v>
       </c>
       <c r="K16">
-        <v>1.337952086620106</v>
+        <v>0.1898584723919488</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.0602957334188936</v>
       </c>
       <c r="M16">
-        <v>0.4779524022539121</v>
+        <v>1.153445591356643</v>
       </c>
       <c r="N16">
-        <v>0.7869814131968216</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>2.166655669098958</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.2339377877696833</v>
+      </c>
+      <c r="P16">
+        <v>0.7527171017373746</v>
+      </c>
+      <c r="Q16">
+        <v>0.9809975375742823</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.274128212897125</v>
+        <v>1.080406157572298</v>
       </c>
       <c r="C17">
-        <v>0.1413356573940092</v>
+        <v>0.1311193111611715</v>
       </c>
       <c r="D17">
-        <v>0.1885546646445562</v>
+        <v>0.1367352997334166</v>
       </c>
       <c r="E17">
-        <v>0.1269507106109167</v>
+        <v>0.05473131294657563</v>
       </c>
       <c r="F17">
-        <v>0.937067910342364</v>
+        <v>0.4830094835672512</v>
       </c>
       <c r="G17">
-        <v>0.0008066751591609117</v>
+        <v>0.256202402253642</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242454197156633</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1204624144262496</v>
+        <v>0.2492098565315288</v>
       </c>
       <c r="K17">
-        <v>1.281839250084857</v>
+        <v>0.1968903589148283</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.05931636087785286</v>
       </c>
       <c r="M17">
-        <v>0.458402811623948</v>
+        <v>1.11395191863889</v>
       </c>
       <c r="N17">
-        <v>0.8048074393705917</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>2.141281121352506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.2450304370672782</v>
+      </c>
+      <c r="P17">
+        <v>0.7532790077345766</v>
+      </c>
+      <c r="Q17">
+        <v>1.013402236403678</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.242059898710863</v>
+        <v>1.060050060857321</v>
       </c>
       <c r="C18">
-        <v>0.1380795284001977</v>
+        <v>0.1329902591240284</v>
       </c>
       <c r="D18">
-        <v>0.1843832187643528</v>
+        <v>0.1589389496430726</v>
       </c>
       <c r="E18">
-        <v>0.1246355868983322</v>
+        <v>0.0714623578037461</v>
       </c>
       <c r="F18">
-        <v>0.9278990468238248</v>
+        <v>0.5216812541192866</v>
       </c>
       <c r="G18">
-        <v>0.0008075692780085812</v>
+        <v>0.2753011475831073</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07140186517126068</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1187962574975359</v>
+        <v>0.2601262810979108</v>
       </c>
       <c r="K18">
-        <v>1.249619774809901</v>
+        <v>0.2076424064540845</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.06551248071024141</v>
       </c>
       <c r="M18">
-        <v>0.4471908287443256</v>
+        <v>1.100386859103764</v>
       </c>
       <c r="N18">
-        <v>0.8151936041441514</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2.127142690674162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.2803886847514576</v>
+      </c>
+      <c r="P18">
+        <v>0.7457396322388021</v>
+      </c>
+      <c r="Q18">
+        <v>1.076703243651792</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.231212725676329</v>
+        <v>1.058886918499951</v>
       </c>
       <c r="C19">
-        <v>0.1369774769387249</v>
+        <v>0.1383380797992118</v>
       </c>
       <c r="D19">
-        <v>0.1829732148860046</v>
+        <v>0.1928720489181615</v>
       </c>
       <c r="E19">
-        <v>0.1238542592453022</v>
+        <v>0.101149488171302</v>
       </c>
       <c r="F19">
-        <v>0.9248244920610631</v>
+        <v>0.57640263597672</v>
       </c>
       <c r="G19">
-        <v>0.0008078731517234327</v>
+        <v>0.3019101260351746</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02617444982240613</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1182353739538158</v>
+        <v>0.2740525400475775</v>
       </c>
       <c r="K19">
-        <v>1.23871983019211</v>
+        <v>0.2209837354406972</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.08825129748416671</v>
       </c>
       <c r="M19">
-        <v>0.4434000218696283</v>
+        <v>1.108549118500605</v>
       </c>
       <c r="N19">
-        <v>0.8187327784070906</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>2.122432556279961</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.3356274687727776</v>
+      </c>
+      <c r="P19">
+        <v>0.7340602834033376</v>
+      </c>
+      <c r="Q19">
+        <v>1.162277979469806</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.280068487385392</v>
+        <v>1.111674240536786</v>
       </c>
       <c r="C20">
-        <v>0.141938501463116</v>
+        <v>0.1533445197878223</v>
       </c>
       <c r="D20">
-        <v>0.1893278496142017</v>
+        <v>0.2585995562655796</v>
       </c>
       <c r="E20">
-        <v>0.127380405352902</v>
+        <v>0.1653510431891227</v>
       </c>
       <c r="F20">
-        <v>0.9387791861895067</v>
+        <v>0.6743134669317072</v>
       </c>
       <c r="G20">
-        <v>0.0008065102168060552</v>
+        <v>0.3486773746958249</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0002635129043340179</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1207723422338489</v>
+        <v>0.295913077996687</v>
       </c>
       <c r="K20">
-        <v>1.287806741218247</v>
+        <v>0.2410273073640319</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1545682046183856</v>
       </c>
       <c r="M20">
-        <v>0.4604804973778869</v>
+        <v>1.177613995336685</v>
       </c>
       <c r="N20">
-        <v>0.8028959894009242</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>2.143934701672606</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.4450680512359142</v>
+      </c>
+      <c r="P20">
+        <v>0.7097212976558716</v>
+      </c>
+      <c r="Q20">
+        <v>1.307337234980537</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.445023899972568</v>
+        <v>1.25085838466336</v>
       </c>
       <c r="C21">
-        <v>0.1586416611954604</v>
+        <v>0.1719627970691704</v>
       </c>
       <c r="D21">
-        <v>0.2108533562590935</v>
+        <v>0.2910148286331946</v>
       </c>
       <c r="E21">
-        <v>0.1394126256907455</v>
+        <v>0.1863036314403459</v>
       </c>
       <c r="F21">
-        <v>0.9878286785588983</v>
+        <v>0.7161154208189657</v>
       </c>
       <c r="G21">
-        <v>0.0008020085427657732</v>
+        <v>0.3681490039971322</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0007669702627524089</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.129532396802972</v>
+        <v>0.3001986045036915</v>
       </c>
       <c r="K21">
-        <v>1.453425581746984</v>
+        <v>0.2419849375712886</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1735736232021239</v>
       </c>
       <c r="M21">
-        <v>0.518270510905829</v>
+        <v>1.324813936895367</v>
       </c>
       <c r="N21">
-        <v>0.7512969308588904</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>2.221743925227344</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5078675948542397</v>
+      </c>
+      <c r="P21">
+        <v>0.6782116022465772</v>
+      </c>
+      <c r="Q21">
+        <v>1.357906858855387</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.55351750805201</v>
+        <v>1.341329352978562</v>
       </c>
       <c r="C22">
-        <v>0.1695911421957561</v>
+        <v>0.1836525545775345</v>
       </c>
       <c r="D22">
-        <v>0.2250634372607152</v>
+        <v>0.3092768135545754</v>
       </c>
       <c r="E22">
-        <v>0.1474246816053864</v>
+        <v>0.1966557634391037</v>
       </c>
       <c r="F22">
-        <v>1.02160328541359</v>
+        <v>0.7397210106984389</v>
       </c>
       <c r="G22">
-        <v>0.0007991221635835551</v>
+        <v>0.3793306815409352</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001371716117463784</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.1354461186328635</v>
+        <v>0.3022834655626099</v>
       </c>
       <c r="K22">
-        <v>1.562265400748316</v>
+        <v>0.2419866418930923</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.182089517354818</v>
       </c>
       <c r="M22">
-        <v>0.5563733301569371</v>
+        <v>1.419808694405191</v>
       </c>
       <c r="N22">
-        <v>0.7188211713347066</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>2.277008515595298</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.5441973960185891</v>
+      </c>
+      <c r="P22">
+        <v>0.6589204763465943</v>
+      </c>
+      <c r="Q22">
+        <v>1.386176073458586</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.495544069748263</v>
+        <v>1.293034212923487</v>
       </c>
       <c r="C23">
-        <v>0.1637437062643272</v>
+        <v>0.1774131430104973</v>
       </c>
       <c r="D23">
-        <v>0.2174654922704065</v>
+        <v>0.2995247809931385</v>
       </c>
       <c r="E23">
-        <v>0.1431342278822747</v>
+        <v>0.191128682491339</v>
       </c>
       <c r="F23">
-        <v>1.0034129562966</v>
+        <v>0.727053546691586</v>
       </c>
       <c r="G23">
-        <v>0.0008006577192889416</v>
+        <v>0.3733080896712693</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.001028479477674038</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1322717753793157</v>
+        <v>0.3011386674172485</v>
       </c>
       <c r="K23">
-        <v>1.504115373443085</v>
+        <v>0.2419477380499444</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1775440852120056</v>
       </c>
       <c r="M23">
-        <v>0.5360043360479807</v>
+        <v>1.369100963910029</v>
       </c>
       <c r="N23">
-        <v>0.7360368586706425</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>2.247091541907992</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5248014195408217</v>
+      </c>
+      <c r="P23">
+        <v>0.6691503986432679</v>
+      </c>
+      <c r="Q23">
+        <v>1.37090564323438</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.277382734842661</v>
+        <v>1.110292806102564</v>
       </c>
       <c r="C24">
-        <v>0.1416659520627235</v>
+        <v>0.1537869084118455</v>
       </c>
       <c r="D24">
-        <v>0.1889782544786982</v>
+        <v>0.2626993448754149</v>
       </c>
       <c r="E24">
-        <v>0.1271860967762493</v>
+        <v>0.1702336180347146</v>
       </c>
       <c r="F24">
-        <v>0.9380049807222548</v>
+        <v>0.6805439741495007</v>
       </c>
       <c r="G24">
-        <v>0.0008065847655599478</v>
+        <v>0.3516642079913765</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.0001644926023876003</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1206321662410161</v>
+        <v>0.2974915639337254</v>
       </c>
       <c r="K24">
-        <v>1.285108713357346</v>
+        <v>0.2426148902137584</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.160331072547848</v>
       </c>
       <c r="M24">
-        <v>0.4595410909858515</v>
+        <v>1.177181047995902</v>
       </c>
       <c r="N24">
-        <v>0.8037597275588819</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>2.142733620956818</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.4514630329226534</v>
+      </c>
+      <c r="P24">
+        <v>0.709320467037891</v>
+      </c>
+      <c r="Q24">
+        <v>1.316972745205675</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.044470017037952</v>
+        <v>0.9133515370500049</v>
       </c>
       <c r="C25">
-        <v>0.1179486297314298</v>
+        <v>0.1282907289170225</v>
       </c>
       <c r="D25">
-        <v>0.1587856967544354</v>
+        <v>0.223167724264087</v>
       </c>
       <c r="E25">
-        <v>0.110553450601536</v>
+        <v>0.1477450613692319</v>
       </c>
       <c r="F25">
-        <v>0.8741607548691661</v>
+        <v>0.633244657228083</v>
       </c>
       <c r="G25">
-        <v>0.0008132307121856261</v>
+        <v>0.3305856709208754</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>7.911323097786749E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1088073022292093</v>
+        <v>0.2949317866255683</v>
       </c>
       <c r="K25">
-        <v>1.050928358448658</v>
+        <v>0.2449509023998431</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1417356683309023</v>
       </c>
       <c r="M25">
-        <v>0.3782798175665505</v>
+        <v>0.9702469573153394</v>
       </c>
       <c r="N25">
-        <v>0.8818674805058153</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>2.047436754985512</v>
+        <v>0.3725365026206191</v>
+      </c>
+      <c r="P25">
+        <v>0.7555336913328574</v>
+      </c>
+      <c r="Q25">
+        <v>1.266457081800382</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7682894357215275</v>
+        <v>0.7464080378904612</v>
       </c>
       <c r="C2">
-        <v>0.1094844916715658</v>
+        <v>0.120506285734308</v>
       </c>
       <c r="D2">
-        <v>0.1941783569629791</v>
+        <v>0.1982034828631782</v>
       </c>
       <c r="E2">
-        <v>0.1311970310165371</v>
+        <v>0.1322249163911771</v>
       </c>
       <c r="F2">
-        <v>0.6006272764279572</v>
+        <v>0.5829589544683458</v>
       </c>
       <c r="G2">
-        <v>0.3168018821752554</v>
+        <v>0.2851096130737574</v>
       </c>
       <c r="H2">
-        <v>0.0006631373491730042</v>
+        <v>0.0006086534419429412</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.2941366257633291</v>
+        <v>0.3168264448768809</v>
       </c>
       <c r="K2">
-        <v>0.2479438962296285</v>
+        <v>0.2309622578413659</v>
       </c>
       <c r="L2">
-        <v>0.1279852152716288</v>
+        <v>0.1327550202244083</v>
       </c>
       <c r="M2">
-        <v>0.8177426471575586</v>
+        <v>0.05164915005300763</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1277197270104367</v>
       </c>
       <c r="O2">
-        <v>0.3144929584374978</v>
+        <v>0.819590035542717</v>
       </c>
       <c r="P2">
-        <v>0.7918932786205595</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.23520241170219</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3160254395968067</v>
+      </c>
+      <c r="R2">
+        <v>0.7831558339265285</v>
+      </c>
+      <c r="S2">
+        <v>1.185764408888247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6698520680314743</v>
+        <v>0.6548180841136286</v>
       </c>
       <c r="C3">
-        <v>0.0967078917738462</v>
+        <v>0.1038082633564841</v>
       </c>
       <c r="D3">
-        <v>0.174583983927306</v>
+        <v>0.1780704601198693</v>
       </c>
       <c r="E3">
-        <v>0.1199733029166943</v>
+        <v>0.121066976669109</v>
       </c>
       <c r="F3">
-        <v>0.5797789455883873</v>
+        <v>0.5642620685064017</v>
       </c>
       <c r="G3">
-        <v>0.3084430168364776</v>
+        <v>0.2791510898063265</v>
       </c>
       <c r="H3">
-        <v>0.001423754595925586</v>
+        <v>0.001305551045332032</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.2942341472290906</v>
+        <v>0.3153979394088324</v>
       </c>
       <c r="K3">
-        <v>0.2507111155278032</v>
+        <v>0.2344627402598327</v>
       </c>
       <c r="L3">
-        <v>0.1186136520514864</v>
+        <v>0.1376353487415063</v>
       </c>
       <c r="M3">
-        <v>0.7142068543386131</v>
+        <v>0.05067783473727516</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1186949353910407</v>
       </c>
       <c r="O3">
-        <v>0.2751605579644654</v>
+        <v>0.716002624013953</v>
       </c>
       <c r="P3">
-        <v>0.8179206311994012</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.217422110157798</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.276445461463112</v>
+      </c>
+      <c r="R3">
+        <v>0.805875928691993</v>
+      </c>
+      <c r="S3">
+        <v>1.172588211196299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6093209022661767</v>
+        <v>0.5983407840283519</v>
       </c>
       <c r="C4">
-        <v>0.08884446490000641</v>
+        <v>0.09361370517348178</v>
       </c>
       <c r="D4">
-        <v>0.1625721835284253</v>
+        <v>0.1657465315172857</v>
       </c>
       <c r="E4">
-        <v>0.1130727810431473</v>
+        <v>0.1142113140307366</v>
       </c>
       <c r="F4">
-        <v>0.5675601580599761</v>
+        <v>0.5532674864765141</v>
       </c>
       <c r="G4">
-        <v>0.3037638442639832</v>
+        <v>0.2759369837354484</v>
       </c>
       <c r="H4">
-        <v>0.002058405060069934</v>
+        <v>0.00188708949030858</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.2945943989581323</v>
+        <v>0.3146727965112959</v>
       </c>
       <c r="K4">
-        <v>0.2527572312785296</v>
+        <v>0.2368772998366477</v>
       </c>
       <c r="L4">
-        <v>0.1128284695096511</v>
+        <v>0.1408259584549576</v>
       </c>
       <c r="M4">
-        <v>0.6505177234074608</v>
+        <v>0.05059163033316949</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.113121645715978</v>
       </c>
       <c r="O4">
-        <v>0.251000727615331</v>
+        <v>0.6522643017099625</v>
       </c>
       <c r="P4">
-        <v>0.8345633279562747</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.208087569669871</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2521318858334496</v>
+      </c>
+      <c r="R4">
+        <v>0.8204774242640376</v>
+      </c>
+      <c r="S4">
+        <v>1.165790271264285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.5846278817398058</v>
+        <v>0.5752629588943137</v>
       </c>
       <c r="C5">
-        <v>0.0856350282982703</v>
+        <v>0.08947346578436566</v>
       </c>
       <c r="D5">
-        <v>0.1576812901798661</v>
+        <v>0.160733167837094</v>
       </c>
       <c r="E5">
-        <v>0.110257853373767</v>
+        <v>0.11141585067638</v>
       </c>
       <c r="F5">
-        <v>0.5627220175482606</v>
+        <v>0.5489045028388659</v>
       </c>
       <c r="G5">
-        <v>0.3019665626499375</v>
+        <v>0.2747342234895527</v>
       </c>
       <c r="H5">
-        <v>0.002357402674569187</v>
+        <v>0.0021610993654817</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2948148149708985</v>
+        <v>0.314414603669448</v>
       </c>
       <c r="K5">
-        <v>0.2536758111238253</v>
+        <v>0.2379259846086157</v>
       </c>
       <c r="L5">
-        <v>0.1104624877974771</v>
+        <v>0.1421749820936569</v>
       </c>
       <c r="M5">
-        <v>0.624530848324909</v>
+        <v>0.05068360191781718</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.1108418370344637</v>
       </c>
       <c r="O5">
-        <v>0.2411515231357022</v>
+        <v>0.6262537036906224</v>
       </c>
       <c r="P5">
-        <v>0.8415085624015486</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.204668185793608</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2422197955400236</v>
+      </c>
+      <c r="R5">
+        <v>0.8265886115448282</v>
+      </c>
+      <c r="S5">
+        <v>1.163333493297898</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.5805259541751298</v>
+        <v>0.5714270411701534</v>
       </c>
       <c r="C6">
-        <v>0.08510179009857666</v>
+        <v>0.08878682201077481</v>
       </c>
       <c r="D6">
-        <v>0.156869380146972</v>
+        <v>0.159901208367188</v>
       </c>
       <c r="E6">
-        <v>0.109790243458221</v>
+        <v>0.1109515460354586</v>
       </c>
       <c r="F6">
-        <v>0.5619270203541831</v>
+        <v>0.548186990207931</v>
       </c>
       <c r="G6">
-        <v>0.3016746132481103</v>
+        <v>0.2745408336547115</v>
       </c>
       <c r="H6">
-        <v>0.002409438267247266</v>
+        <v>0.002208788714264331</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2948558059598412</v>
+        <v>0.3143739585085825</v>
       </c>
       <c r="K6">
-        <v>0.2538333892819562</v>
+        <v>0.2381039712224791</v>
       </c>
       <c r="L6">
-        <v>0.1100690872606727</v>
+        <v>0.1424019361694633</v>
       </c>
       <c r="M6">
-        <v>0.6202136559626581</v>
+        <v>0.05070651666003467</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.1104627372559968</v>
       </c>
       <c r="O6">
-        <v>0.2395157945733004</v>
+        <v>0.621932370710752</v>
       </c>
       <c r="P6">
-        <v>0.8426715785440351</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.204123239634157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2405736165128189</v>
+      </c>
+      <c r="R6">
+        <v>0.8276130110799631</v>
+      </c>
+      <c r="S6">
+        <v>1.162944148649984</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6089879934882845</v>
+        <v>0.5977283548936327</v>
       </c>
       <c r="C7">
-        <v>0.08880120212943154</v>
+        <v>0.09333354855135667</v>
       </c>
       <c r="D7">
-        <v>0.1625062080413642</v>
+        <v>0.1658497823078022</v>
       </c>
       <c r="E7">
-        <v>0.113034830523457</v>
+        <v>0.1142106824687055</v>
       </c>
       <c r="F7">
-        <v>0.5674943446694627</v>
+        <v>0.5525525727795539</v>
       </c>
       <c r="G7">
-        <v>0.3037391678096029</v>
+        <v>0.2782094842976832</v>
       </c>
       <c r="H7">
-        <v>0.002062276296270094</v>
+        <v>0.001893208476001718</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.2945970760046492</v>
+        <v>0.3113750298484703</v>
       </c>
       <c r="K7">
-        <v>0.2527692795639638</v>
+        <v>0.2366481946031396</v>
       </c>
       <c r="L7">
-        <v>0.1127965962372244</v>
+        <v>0.1407124529817345</v>
       </c>
       <c r="M7">
-        <v>0.6501673934739784</v>
+        <v>0.05053815493988889</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.1130707866955163</v>
       </c>
       <c r="O7">
-        <v>0.2508679153871149</v>
+        <v>0.6513086682417395</v>
       </c>
       <c r="P7">
-        <v>0.8346563371775559</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.208039915180038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2519059910292114</v>
+      </c>
+      <c r="R7">
+        <v>0.8206434882836007</v>
+      </c>
+      <c r="S7">
+        <v>1.164018676290141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7343648259133317</v>
+        <v>0.7138674070076547</v>
       </c>
       <c r="C8">
-        <v>0.1050827380897346</v>
+        <v>0.1139749417037166</v>
       </c>
       <c r="D8">
-        <v>0.187417715999274</v>
+        <v>0.1918280221629374</v>
       </c>
       <c r="E8">
-        <v>0.1273285969053504</v>
+        <v>0.1285046203262716</v>
       </c>
       <c r="F8">
-        <v>0.5933146995553997</v>
+        <v>0.5742374306970959</v>
       </c>
       <c r="G8">
-        <v>0.3138229562715225</v>
+        <v>0.2906260470256896</v>
       </c>
       <c r="H8">
-        <v>0.0008895217076894113</v>
+        <v>0.0008212815240283833</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.2941067300602498</v>
+        <v>0.3056216261717424</v>
       </c>
       <c r="K8">
-        <v>0.2488244805657942</v>
+        <v>0.2313206194797708</v>
       </c>
       <c r="L8">
-        <v>0.1247599188209563</v>
+        <v>0.1340136086705748</v>
       </c>
       <c r="M8">
-        <v>0.7820657817502763</v>
+        <v>0.05098603442919014</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.124550077349916</v>
       </c>
       <c r="O8">
-        <v>0.3009322158757755</v>
+        <v>0.7818690441797287</v>
       </c>
       <c r="P8">
-        <v>0.8007281871683816</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.228735033705036</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3020697344715302</v>
+      </c>
+      <c r="R8">
+        <v>0.7912039475892989</v>
+      </c>
+      <c r="S8">
+        <v>1.175212599863073</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.9796870446315609</v>
+        <v>0.9409230243258548</v>
       </c>
       <c r="C9">
-        <v>0.1368828759461138</v>
+        <v>0.1557514530957036</v>
       </c>
       <c r="D9">
-        <v>0.2364627839020415</v>
+        <v>0.2424882831771527</v>
       </c>
       <c r="E9">
-        <v>0.155316665738308</v>
+        <v>0.1563904701149106</v>
       </c>
       <c r="F9">
-        <v>0.6488176735845386</v>
+        <v>0.6232154858582888</v>
       </c>
       <c r="G9">
-        <v>0.3374024408000409</v>
+        <v>0.3102832227550891</v>
       </c>
       <c r="H9">
-        <v>2.091707689277911E-06</v>
+        <v>2.369932216028658E-06</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2956188240823252</v>
+        <v>0.3072022585883687</v>
       </c>
       <c r="K9">
-        <v>0.2439586637953077</v>
+        <v>0.2239531505079491</v>
       </c>
       <c r="L9">
-        <v>0.1480064671370869</v>
+        <v>0.1228989604134352</v>
       </c>
       <c r="M9">
-        <v>1.039961389505152</v>
+        <v>0.05616282945561757</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1469082319599693</v>
       </c>
       <c r="O9">
-        <v>0.3991067349612152</v>
+        <v>1.039162661213567</v>
       </c>
       <c r="P9">
-        <v>0.7395947486526389</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.28250876187505</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.400750538538432</v>
+      </c>
+      <c r="R9">
+        <v>0.7384681570969711</v>
+      </c>
+      <c r="S9">
+        <v>1.214270028685846</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.158735504655141</v>
+        <v>1.104429531802737</v>
       </c>
       <c r="C10">
-        <v>0.1592535573043818</v>
+        <v>0.1840474634349647</v>
       </c>
       <c r="D10">
-        <v>0.2668241425000701</v>
+        <v>0.2750123834247518</v>
       </c>
       <c r="E10">
-        <v>0.1693020486690386</v>
+        <v>0.1705100474909074</v>
       </c>
       <c r="F10">
-        <v>0.6842063527824607</v>
+        <v>0.6500154988533069</v>
       </c>
       <c r="G10">
-        <v>0.3531851704937807</v>
+        <v>0.3373281741066805</v>
       </c>
       <c r="H10">
-        <v>0.0004712222212468475</v>
+        <v>0.0004355690328137207</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2962944168899213</v>
+        <v>0.2900174068433117</v>
       </c>
       <c r="K10">
-        <v>0.2402863239199746</v>
+        <v>0.2170061967806696</v>
       </c>
       <c r="L10">
-        <v>0.1573458405436199</v>
+        <v>0.1146000410030652</v>
       </c>
       <c r="M10">
-        <v>1.226754541919149</v>
+        <v>0.06132348847905078</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.1555447763171784</v>
       </c>
       <c r="O10">
-        <v>0.4619615021190313</v>
+        <v>1.221676098004906</v>
       </c>
       <c r="P10">
-        <v>0.6993871874825466</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.317799796832304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.4633537203776896</v>
+      </c>
+      <c r="R10">
+        <v>0.7055700944375474</v>
+      </c>
+      <c r="S10">
+        <v>1.228493463894878</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.23026426133265</v>
+        <v>1.170176828098249</v>
       </c>
       <c r="C11">
-        <v>0.1612009614125611</v>
+        <v>0.1830438672212438</v>
       </c>
       <c r="D11">
-        <v>0.2316891507375374</v>
+        <v>0.2411504164828813</v>
       </c>
       <c r="E11">
-        <v>0.1241880494806935</v>
+        <v>0.1253865147977784</v>
       </c>
       <c r="F11">
-        <v>0.6268440527937358</v>
+        <v>0.5874409513152514</v>
       </c>
       <c r="G11">
-        <v>0.3254012665332056</v>
+        <v>0.3403755920560485</v>
       </c>
       <c r="H11">
-        <v>0.01899567112463885</v>
+        <v>0.01894805295609814</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.279175149828589</v>
+        <v>0.2447923957955283</v>
       </c>
       <c r="K11">
-        <v>0.2219494846486043</v>
+        <v>0.1980883630979058</v>
       </c>
       <c r="L11">
-        <v>0.1065201878304372</v>
+        <v>0.1056692042845402</v>
       </c>
       <c r="M11">
-        <v>1.289763562495068</v>
+        <v>0.05724354262465603</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.1048301407800878</v>
       </c>
       <c r="O11">
-        <v>0.4113311596339244</v>
+        <v>1.276175858894902</v>
       </c>
       <c r="P11">
-        <v>0.6950089821424683</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.223201776014832</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.4114584197720106</v>
+      </c>
+      <c r="R11">
+        <v>0.7097110666109145</v>
+      </c>
+      <c r="S11">
+        <v>1.119748848580386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.252588321881973</v>
+        <v>1.19217719387683</v>
       </c>
       <c r="C12">
-        <v>0.1580903846554378</v>
+        <v>0.1770717356700828</v>
       </c>
       <c r="D12">
-        <v>0.19798989866824</v>
+        <v>0.2072712616586472</v>
       </c>
       <c r="E12">
-        <v>0.0909251706733194</v>
+        <v>0.09185369793809528</v>
       </c>
       <c r="F12">
-        <v>0.5724800784015827</v>
+        <v>0.533294228454416</v>
       </c>
       <c r="G12">
-        <v>0.299060043770794</v>
+        <v>0.3277223877617175</v>
       </c>
       <c r="H12">
-        <v>0.05758816315483983</v>
+        <v>0.05754552399918111</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2646504945522281</v>
+        <v>0.2236691920397931</v>
       </c>
       <c r="K12">
-        <v>0.2075199312968508</v>
+        <v>0.1848600838766217</v>
       </c>
       <c r="L12">
-        <v>0.07706238974687807</v>
+        <v>0.1005088752001591</v>
       </c>
       <c r="M12">
-        <v>1.303061259855895</v>
+        <v>0.05290233207884754</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.07567643256385814</v>
       </c>
       <c r="O12">
-        <v>0.3582623795533593</v>
+        <v>1.28544719187849</v>
       </c>
       <c r="P12">
-        <v>0.702860965635665</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.136990152354798</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.3578121455114811</v>
+      </c>
+      <c r="R12">
+        <v>0.72300635222701</v>
+      </c>
+      <c r="S12">
+        <v>1.033302792373661</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.23812251238985</v>
+        <v>1.182475831338166</v>
       </c>
       <c r="C13">
-        <v>0.150935128736819</v>
+        <v>0.1675369163090892</v>
       </c>
       <c r="D13">
-        <v>0.1636167976833747</v>
+        <v>0.1714182338168229</v>
       </c>
       <c r="E13">
-        <v>0.06490473863524926</v>
+        <v>0.06540299558596097</v>
       </c>
       <c r="F13">
-        <v>0.5172511964945414</v>
+        <v>0.4832668346568099</v>
       </c>
       <c r="G13">
-        <v>0.2722024956075515</v>
+        <v>0.2966632450422395</v>
       </c>
       <c r="H13">
-        <v>0.1132239200717038</v>
+        <v>0.1131981108996882</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.251196749088507</v>
+        <v>0.2186063000526133</v>
       </c>
       <c r="K13">
-        <v>0.1951358357585065</v>
+        <v>0.1753409414250608</v>
       </c>
       <c r="L13">
-        <v>0.0621772336807207</v>
+        <v>0.09757900568892808</v>
       </c>
       <c r="M13">
-        <v>1.27874703581108</v>
+        <v>0.04840104976758042</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06122557502589521</v>
       </c>
       <c r="O13">
-        <v>0.3006069904924757</v>
+        <v>1.262032647096021</v>
       </c>
       <c r="P13">
-        <v>0.7197839501892176</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.051847459898624</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.3001932010391215</v>
+      </c>
+      <c r="R13">
+        <v>0.7416525950490822</v>
+      </c>
+      <c r="S13">
+        <v>0.9609519529007713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.211363267355324</v>
+        <v>1.161297111071633</v>
       </c>
       <c r="C14">
-        <v>0.1441401733366376</v>
+        <v>0.1592564289940555</v>
       </c>
       <c r="D14">
-        <v>0.139788106650883</v>
+        <v>0.1461323567485948</v>
       </c>
       <c r="E14">
-        <v>0.05111723908480137</v>
+        <v>0.05131813870814028</v>
       </c>
       <c r="F14">
-        <v>0.4787467558261298</v>
+        <v>0.4501650701939823</v>
       </c>
       <c r="G14">
-        <v>0.2534016322272947</v>
+        <v>0.2682130877871103</v>
       </c>
       <c r="H14">
-        <v>0.1624907115226364</v>
+        <v>0.1624779288987952</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2423535377809216</v>
+        <v>0.2207913164454034</v>
       </c>
       <c r="K14">
-        <v>0.1874978490132229</v>
+        <v>0.1702615430379684</v>
       </c>
       <c r="L14">
-        <v>0.06036740713641553</v>
+        <v>0.09638768466368042</v>
       </c>
       <c r="M14">
-        <v>1.244770163029443</v>
+        <v>0.04526515460739944</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.05974385829677953</v>
       </c>
       <c r="O14">
-        <v>0.2589708023305946</v>
+        <v>1.230811265938343</v>
       </c>
       <c r="P14">
-        <v>0.7358419429642709</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>0.9934129583438107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.2587928741882664</v>
+      </c>
+      <c r="R14">
+        <v>0.7568189098533509</v>
+      </c>
+      <c r="S14">
+        <v>0.9162146524163575</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.197040516575839</v>
+        <v>1.149323254421489</v>
       </c>
       <c r="C15">
-        <v>0.1416397559123368</v>
+        <v>0.1564383937856917</v>
       </c>
       <c r="D15">
-        <v>0.1335903191165784</v>
+        <v>0.1394017373560672</v>
       </c>
       <c r="E15">
-        <v>0.04831865373649791</v>
+        <v>0.04845275880960997</v>
       </c>
       <c r="F15">
-        <v>0.4690461681171598</v>
+        <v>0.4425357978320292</v>
       </c>
       <c r="G15">
-        <v>0.2486777237907489</v>
+        <v>0.2584670644885492</v>
       </c>
       <c r="H15">
-        <v>0.1749684056460126</v>
+        <v>0.1749603622613449</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2404266023494586</v>
+        <v>0.2238756258609591</v>
       </c>
       <c r="K15">
-        <v>0.1860398777646672</v>
+        <v>0.1696684364859955</v>
       </c>
       <c r="L15">
-        <v>0.06100783376727925</v>
+        <v>0.09645974813256508</v>
       </c>
       <c r="M15">
-        <v>1.228561654331202</v>
+        <v>0.04447858522780734</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.0604816948240785</v>
       </c>
       <c r="O15">
-        <v>0.2475767305205459</v>
+        <v>1.216178315278711</v>
       </c>
       <c r="P15">
-        <v>0.7411731939043023</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>0.9793310862300046</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.2475392530780844</v>
+      </c>
+      <c r="R15">
+        <v>0.7610354162366093</v>
+      </c>
+      <c r="S15">
+        <v>0.9074960731370254</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.122923309556143</v>
+        <v>1.083874344757675</v>
       </c>
       <c r="C16">
-        <v>0.1336565009634541</v>
+        <v>0.1485100542582245</v>
       </c>
       <c r="D16">
-        <v>0.1284145269391814</v>
+        <v>0.1326307971260974</v>
       </c>
       <c r="E16">
-        <v>0.04825628563555551</v>
+        <v>0.04839388638461539</v>
       </c>
       <c r="F16">
-        <v>0.4654647649801475</v>
+        <v>0.4456155036586438</v>
       </c>
       <c r="G16">
-        <v>0.247282731695023</v>
+        <v>0.2351493337900052</v>
       </c>
       <c r="H16">
-        <v>0.1620873766729432</v>
+        <v>0.1620927572201936</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2427170419987732</v>
+        <v>0.248218553899207</v>
       </c>
       <c r="K16">
-        <v>0.1898584723919488</v>
+        <v>0.1756368899437017</v>
       </c>
       <c r="L16">
-        <v>0.0602957334188936</v>
+        <v>0.1000180977502616</v>
       </c>
       <c r="M16">
-        <v>1.153445591356643</v>
+        <v>0.04412383522286767</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.05997461783226576</v>
       </c>
       <c r="O16">
-        <v>0.2339377877696833</v>
+        <v>1.148498674933364</v>
       </c>
       <c r="P16">
-        <v>0.7527171017373746</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>0.9809975375742823</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.2346069374249247</v>
+      </c>
+      <c r="R16">
+        <v>0.765324451321078</v>
+      </c>
+      <c r="S16">
+        <v>0.9268334144494901</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.080406157572298</v>
+        <v>1.044481530587262</v>
       </c>
       <c r="C17">
-        <v>0.1311193111611715</v>
+        <v>0.1464640513460864</v>
       </c>
       <c r="D17">
-        <v>0.1367352997334166</v>
+        <v>0.1405510098021239</v>
       </c>
       <c r="E17">
-        <v>0.05473131294657563</v>
+        <v>0.05496709703283642</v>
       </c>
       <c r="F17">
-        <v>0.4830094835672512</v>
+        <v>0.4650309975458953</v>
       </c>
       <c r="G17">
-        <v>0.256202402253642</v>
+        <v>0.2347354952931155</v>
       </c>
       <c r="H17">
-        <v>0.1242454197156633</v>
+        <v>0.1242512665750155</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2492098565315288</v>
+        <v>0.2648895077856039</v>
       </c>
       <c r="K17">
-        <v>0.1968903589148283</v>
+        <v>0.1828595532815278</v>
       </c>
       <c r="L17">
-        <v>0.05931636087785286</v>
+        <v>0.1035894119605008</v>
       </c>
       <c r="M17">
-        <v>1.11395191863889</v>
+        <v>0.04536598208048481</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.05900262000733791</v>
       </c>
       <c r="O17">
-        <v>0.2450304370672782</v>
+        <v>1.11221593811365</v>
       </c>
       <c r="P17">
-        <v>0.7532790077345766</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.013402236403678</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.2460615210221881</v>
+      </c>
+      <c r="R17">
+        <v>0.7618982508374188</v>
+      </c>
+      <c r="S17">
+        <v>0.9643193643891692</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.060050060857321</v>
+        <v>1.023676540959571</v>
       </c>
       <c r="C18">
-        <v>0.1329902591240284</v>
+        <v>0.1497740515883237</v>
       </c>
       <c r="D18">
-        <v>0.1589389496430726</v>
+        <v>0.1630223090877365</v>
       </c>
       <c r="E18">
-        <v>0.0714623578037461</v>
+        <v>0.07185318058801116</v>
       </c>
       <c r="F18">
-        <v>0.5216812541192866</v>
+        <v>0.5028717703463172</v>
       </c>
       <c r="G18">
-        <v>0.2753011475831073</v>
+        <v>0.2486742098303338</v>
       </c>
       <c r="H18">
-        <v>0.07140186517126068</v>
+        <v>0.07140619818459726</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2601262810979108</v>
+        <v>0.2798562154295823</v>
       </c>
       <c r="K18">
-        <v>0.2076424064540845</v>
+        <v>0.1925431501179649</v>
       </c>
       <c r="L18">
-        <v>0.06551248071024141</v>
+        <v>0.1077984268460508</v>
       </c>
       <c r="M18">
-        <v>1.100386859103764</v>
+        <v>0.04819990072727265</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06504256718797219</v>
       </c>
       <c r="O18">
-        <v>0.2803886847514576</v>
+        <v>1.100083391242833</v>
       </c>
       <c r="P18">
-        <v>0.7457396322388021</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.076703243651792</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.2817127887286048</v>
+      </c>
+      <c r="R18">
+        <v>0.7518195745501757</v>
+      </c>
+      <c r="S18">
+        <v>1.025701869580303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.058886918499951</v>
+        <v>1.019577536857781</v>
       </c>
       <c r="C19">
-        <v>0.1383380797992118</v>
+        <v>0.1574635283104442</v>
       </c>
       <c r="D19">
-        <v>0.1928720489181615</v>
+        <v>0.1976788281807416</v>
       </c>
       <c r="E19">
-        <v>0.101149488171302</v>
+        <v>0.1017419663189294</v>
       </c>
       <c r="F19">
-        <v>0.57640263597672</v>
+        <v>0.5549593075282857</v>
       </c>
       <c r="G19">
-        <v>0.3019101260351746</v>
+        <v>0.2719545042820002</v>
       </c>
       <c r="H19">
-        <v>0.02617444982240613</v>
+        <v>0.02617691858600324</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2740525400475775</v>
+        <v>0.2942399627733181</v>
       </c>
       <c r="K19">
-        <v>0.2209837354406972</v>
+        <v>0.203952566089086</v>
       </c>
       <c r="L19">
-        <v>0.08825129748416671</v>
+        <v>0.1123433943288585</v>
       </c>
       <c r="M19">
-        <v>1.108549118500605</v>
+        <v>0.05227470603960782</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.08747756311693777</v>
       </c>
       <c r="O19">
-        <v>0.3356274687727776</v>
+        <v>1.108739699423268</v>
       </c>
       <c r="P19">
-        <v>0.7340602834033376</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.162277979469806</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.337237866895336</v>
+      </c>
+      <c r="R19">
+        <v>0.7383469463494272</v>
+      </c>
+      <c r="S19">
+        <v>1.104810250420741</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.111674240536786</v>
+        <v>1.062646910128706</v>
       </c>
       <c r="C20">
-        <v>0.1533445197878223</v>
+        <v>0.1774075226413743</v>
       </c>
       <c r="D20">
-        <v>0.2585995562655796</v>
+        <v>0.2655735773664532</v>
       </c>
       <c r="E20">
-        <v>0.1653510431891227</v>
+        <v>0.1663799080383015</v>
       </c>
       <c r="F20">
-        <v>0.6743134669317072</v>
+        <v>0.6447590927037083</v>
       </c>
       <c r="G20">
-        <v>0.3486773746958249</v>
+        <v>0.3213432467210353</v>
       </c>
       <c r="H20">
-        <v>0.0002635129043340179</v>
+        <v>0.000245955486438465</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.295913077996687</v>
+        <v>0.3049694410809494</v>
       </c>
       <c r="K20">
-        <v>0.2410273073640319</v>
+        <v>0.2194687562263979</v>
       </c>
       <c r="L20">
-        <v>0.1545682046183856</v>
+        <v>0.1169633806674995</v>
       </c>
       <c r="M20">
-        <v>1.177613995336685</v>
+        <v>0.06011126691956825</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1530162586416353</v>
       </c>
       <c r="O20">
-        <v>0.4450680512359142</v>
+        <v>1.175930780637998</v>
       </c>
       <c r="P20">
-        <v>0.7097212976558716</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.307337234980537</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.4468710245577867</v>
+      </c>
+      <c r="R20">
+        <v>0.7134218732454904</v>
+      </c>
+      <c r="S20">
+        <v>1.229816532414276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.25085838466336</v>
+        <v>1.182864636274161</v>
       </c>
       <c r="C21">
-        <v>0.1719627970691704</v>
+        <v>0.1966785173239458</v>
       </c>
       <c r="D21">
-        <v>0.2910148286331946</v>
+        <v>0.3033669456799544</v>
       </c>
       <c r="E21">
-        <v>0.1863036314403459</v>
+        <v>0.1882940303609644</v>
       </c>
       <c r="F21">
-        <v>0.7161154208189657</v>
+        <v>0.6665318984014164</v>
       </c>
       <c r="G21">
-        <v>0.3681490039971322</v>
+        <v>0.3971505877777304</v>
       </c>
       <c r="H21">
-        <v>0.0007669702627524089</v>
+        <v>0.0006637052835889445</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3001986045036915</v>
+        <v>0.2462115347438285</v>
       </c>
       <c r="K21">
-        <v>0.2419849375712886</v>
+        <v>0.2128888283135808</v>
       </c>
       <c r="L21">
-        <v>0.1735736232021239</v>
+        <v>0.1104063488923188</v>
       </c>
       <c r="M21">
-        <v>1.324813936895367</v>
+        <v>0.0640742125196283</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1710561749536126</v>
       </c>
       <c r="O21">
-        <v>0.5078675948542397</v>
+        <v>1.307787004517593</v>
       </c>
       <c r="P21">
-        <v>0.6782116022465772</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.357906858855387</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5076630725194349</v>
+      </c>
+      <c r="R21">
+        <v>0.6901823780891014</v>
+      </c>
+      <c r="S21">
+        <v>1.229274038118277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.341329352978562</v>
+        <v>1.26044927811617</v>
       </c>
       <c r="C22">
-        <v>0.1836525545775345</v>
+        <v>0.2082168025903854</v>
       </c>
       <c r="D22">
-        <v>0.3092768135545754</v>
+        <v>0.3254872294363764</v>
       </c>
       <c r="E22">
-        <v>0.1966557634391037</v>
+        <v>0.1993630110963664</v>
       </c>
       <c r="F22">
-        <v>0.7397210106984389</v>
+        <v>0.6760489180575462</v>
       </c>
       <c r="G22">
-        <v>0.3793306815409352</v>
+        <v>0.4534493842475484</v>
       </c>
       <c r="H22">
-        <v>0.001371716117463784</v>
+        <v>0.001180730000113206</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3022834655626099</v>
+        <v>0.2137441633811044</v>
       </c>
       <c r="K22">
-        <v>0.2419866418930923</v>
+        <v>0.2077053542549976</v>
       </c>
       <c r="L22">
-        <v>0.182089517354818</v>
+        <v>0.1060331859776866</v>
       </c>
       <c r="M22">
-        <v>1.419808694405191</v>
+        <v>0.06651148495663861</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1789599776428545</v>
       </c>
       <c r="O22">
-        <v>0.5441973960185891</v>
+        <v>1.391516976685665</v>
       </c>
       <c r="P22">
-        <v>0.6589204763465943</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.386176073458586</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.5424589218639113</v>
+      </c>
+      <c r="R22">
+        <v>0.6770792244628154</v>
+      </c>
+      <c r="S22">
+        <v>1.221656832539821</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.293034212923487</v>
+        <v>1.219889902055002</v>
       </c>
       <c r="C23">
-        <v>0.1774131430104973</v>
+        <v>0.2027013392938244</v>
       </c>
       <c r="D23">
-        <v>0.2995247809931385</v>
+        <v>0.313169463363181</v>
       </c>
       <c r="E23">
-        <v>0.191128682491339</v>
+        <v>0.193334848015887</v>
       </c>
       <c r="F23">
-        <v>0.727053546691586</v>
+        <v>0.6726682438207021</v>
       </c>
       <c r="G23">
-        <v>0.3733080896712693</v>
+        <v>0.4156805795119851</v>
       </c>
       <c r="H23">
-        <v>0.001028479477674038</v>
+        <v>0.0008903137919180626</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3011386674172485</v>
+        <v>0.2352915292403353</v>
       </c>
       <c r="K23">
-        <v>0.2419477380499444</v>
+        <v>0.2110462265480706</v>
       </c>
       <c r="L23">
-        <v>0.1775440852120056</v>
+        <v>0.1085317085965176</v>
       </c>
       <c r="M23">
-        <v>1.369100963910029</v>
+        <v>0.0654441237989225</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1747829561899934</v>
       </c>
       <c r="O23">
-        <v>0.5248014195408217</v>
+        <v>1.348528390278744</v>
       </c>
       <c r="P23">
-        <v>0.6691503986432679</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.37090564323438</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.52414742398512</v>
+      </c>
+      <c r="R23">
+        <v>0.6835057632520112</v>
+      </c>
+      <c r="S23">
+        <v>1.230108612628584</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.110292806102564</v>
+        <v>1.061096877962171</v>
       </c>
       <c r="C24">
-        <v>0.1537869084118455</v>
+        <v>0.1780971580681268</v>
       </c>
       <c r="D24">
-        <v>0.2626993448754149</v>
+        <v>0.269733192098883</v>
       </c>
       <c r="E24">
-        <v>0.1702336180347146</v>
+        <v>0.1712841824004947</v>
       </c>
       <c r="F24">
-        <v>0.6805439741495007</v>
+        <v>0.650785438214271</v>
       </c>
       <c r="G24">
-        <v>0.3516642079913765</v>
+        <v>0.3236495983486805</v>
       </c>
       <c r="H24">
-        <v>0.0001644926023876003</v>
+        <v>0.0001458241848513175</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2974915639337254</v>
+        <v>0.3069939665628425</v>
       </c>
       <c r="K24">
-        <v>0.2426148902137584</v>
+        <v>0.2208675574878285</v>
       </c>
       <c r="L24">
-        <v>0.160331072547848</v>
+        <v>0.1175529633967116</v>
       </c>
       <c r="M24">
-        <v>1.177181047995902</v>
+        <v>0.06056400224345637</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1587422221747303</v>
       </c>
       <c r="O24">
-        <v>0.4514630329226534</v>
+        <v>1.175639881035011</v>
       </c>
       <c r="P24">
-        <v>0.709320467037891</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.316972745205675</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.4533092605277105</v>
+      </c>
+      <c r="R24">
+        <v>0.7126894791147507</v>
+      </c>
+      <c r="S24">
+        <v>1.238977652818761</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9133515370500049</v>
+        <v>0.8801072564406809</v>
       </c>
       <c r="C25">
-        <v>0.1282907289170225</v>
+        <v>0.1447285244130398</v>
       </c>
       <c r="D25">
-        <v>0.223167724264087</v>
+        <v>0.2284908377953201</v>
       </c>
       <c r="E25">
-        <v>0.1477450613692319</v>
+        <v>0.148787690132643</v>
       </c>
       <c r="F25">
-        <v>0.633244657228083</v>
+        <v>0.6104272396046326</v>
       </c>
       <c r="G25">
-        <v>0.3305856709208754</v>
+        <v>0.3012137624154221</v>
       </c>
       <c r="H25">
-        <v>7.911323097786749E-05</v>
+        <v>7.427860056563595E-05</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.2949317866255683</v>
+        <v>0.3111108725434875</v>
       </c>
       <c r="K25">
-        <v>0.2449509023998431</v>
+        <v>0.2260313624561867</v>
       </c>
       <c r="L25">
-        <v>0.1417356683309023</v>
+        <v>0.1258810196478581</v>
       </c>
       <c r="M25">
-        <v>0.9702469573153394</v>
+        <v>0.05442900871926959</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.1409059841402041</v>
       </c>
       <c r="O25">
-        <v>0.3725365026206191</v>
+        <v>0.9705168626812508</v>
       </c>
       <c r="P25">
-        <v>0.7555336913328574</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.266457081800382</v>
+        <v>0.3741823023392215</v>
+      </c>
+      <c r="R25">
+        <v>0.7519643773357814</v>
+      </c>
+      <c r="S25">
+        <v>1.204915194015925</v>
       </c>
     </row>
   </sheetData>
